--- a/resumen_vendedores.xlsx
+++ b/resumen_vendedores.xlsx
@@ -537,10 +537,10 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <v>11002354.59</v>
+        <v>15955688.59</v>
       </c>
       <c r="D2">
-        <v>18299665</v>
+        <v>21699665</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -555,9 +555,9 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
     </row>
@@ -569,13 +569,13 @@
         <v>26</v>
       </c>
       <c r="C3">
-        <v>65153688.29890756</v>
+        <v>88363019.15613446</v>
       </c>
       <c r="D3">
-        <v>60298675</v>
+        <v>82364947</v>
       </c>
       <c r="E3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <v>70</v>
@@ -587,13 +587,10 @@
         <v>73863636</v>
       </c>
       <c r="I3">
-        <v>0.7317073170731707</v>
+        <v>0.53125</v>
       </c>
       <c r="J3">
-        <v>11</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -607,13 +604,13 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>345707247.9882255</v>
+        <v>421613333.8338557</v>
       </c>
       <c r="D4">
-        <v>366474051</v>
+        <v>471177433</v>
       </c>
       <c r="E4">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="F4">
         <v>1145</v>
@@ -625,19 +622,16 @@
         <v>425771666</v>
       </c>
       <c r="I4">
-        <v>0.9311740890688259</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="J4">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="K4">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L4">
-        <v>11</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -648,13 +642,13 @@
         <v>28</v>
       </c>
       <c r="C5">
-        <v>163717547.1265546</v>
+        <v>239206059.2633614</v>
       </c>
       <c r="D5">
-        <v>205707676</v>
+        <v>245695496</v>
       </c>
       <c r="E5">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>84</v>
@@ -666,16 +660,19 @@
         <v>224196539</v>
       </c>
       <c r="I5">
-        <v>1.701492537313433</v>
+        <v>1.396825396825397</v>
       </c>
       <c r="J5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -686,13 +683,13 @@
         <v>29</v>
       </c>
       <c r="C6">
-        <v>198472973.1590353</v>
+        <v>248937292.3664471</v>
       </c>
       <c r="D6">
-        <v>247526586</v>
+        <v>293209483</v>
       </c>
       <c r="E6">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F6">
         <v>383</v>
@@ -704,19 +701,16 @@
         <v>275838763</v>
       </c>
       <c r="I6">
-        <v>0.9</v>
+        <v>0.753968253968254</v>
       </c>
       <c r="J6">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L6">
-        <v>8</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -727,13 +721,13 @@
         <v>30</v>
       </c>
       <c r="C7">
-        <v>150630768.3710477</v>
+        <v>194826892.9357536</v>
       </c>
       <c r="D7">
-        <v>206287744</v>
+        <v>234221045</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>71</v>
@@ -745,16 +739,16 @@
         <v>243831579</v>
       </c>
       <c r="I7">
-        <v>1.931034482758621</v>
+        <v>1.576923076923077</v>
       </c>
       <c r="J7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -765,13 +759,13 @@
         <v>31</v>
       </c>
       <c r="C8">
-        <v>67630482.42420663</v>
+        <v>92770837.82925358</v>
       </c>
       <c r="D8">
-        <v>70263779</v>
+        <v>93293122</v>
       </c>
       <c r="E8">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F8">
         <v>90</v>
@@ -783,13 +777,16 @@
         <v>115769382</v>
       </c>
       <c r="I8">
-        <v>0.9016393442622951</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="J8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K8">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -803,13 +800,13 @@
         <v>32</v>
       </c>
       <c r="C9">
-        <v>76355933.16458569</v>
+        <v>87373749.05273695</v>
       </c>
       <c r="D9">
-        <v>59933083</v>
+        <v>74311558</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>369</v>
@@ -821,16 +818,16 @@
         <v>75230041</v>
       </c>
       <c r="I9">
-        <v>0.8513513513513513</v>
+        <v>0.8269230769230769</v>
       </c>
       <c r="J9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -841,13 +838,13 @@
         <v>33</v>
       </c>
       <c r="C10">
-        <v>100543857.6252101</v>
+        <v>114909178.4663025</v>
       </c>
       <c r="D10">
-        <v>75462928</v>
+        <v>117480683</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10">
         <v>67</v>
@@ -859,16 +856,16 @@
         <v>111504833</v>
       </c>
       <c r="I10">
-        <v>1.560975609756098</v>
+        <v>1.354838709677419</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -879,13 +876,13 @@
         <v>34</v>
       </c>
       <c r="C11">
-        <v>51628711.47163193</v>
+        <v>63481047.15919448</v>
       </c>
       <c r="D11">
-        <v>9813782</v>
+        <v>15876289</v>
       </c>
       <c r="E11">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F11">
         <v>1471</v>
@@ -897,19 +894,16 @@
         <v>80000000</v>
       </c>
       <c r="I11">
-        <v>0.8529411764705882</v>
+        <v>0.8617021276595744</v>
       </c>
       <c r="J11">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L11">
-        <v>7</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -920,10 +914,10 @@
         <v>35</v>
       </c>
       <c r="C12">
-        <v>55252938.24092478</v>
+        <v>69984672.37537856</v>
       </c>
       <c r="D12">
-        <v>16308000</v>
+        <v>31252136</v>
       </c>
       <c r="E12">
         <v>30</v>
@@ -938,16 +932,16 @@
         <v>77699816</v>
       </c>
       <c r="I12">
-        <v>0.8333333333333334</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -961,13 +955,13 @@
         <v>36</v>
       </c>
       <c r="C13">
-        <v>53668514.49193278</v>
+        <v>78410737.51462185</v>
       </c>
       <c r="D13">
-        <v>58293687</v>
+        <v>75329062</v>
       </c>
       <c r="E13">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>58</v>
@@ -979,16 +973,16 @@
         <v>82566333</v>
       </c>
       <c r="I13">
-        <v>1.488372093023256</v>
+        <v>1.315789473684211</v>
       </c>
       <c r="J13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M13">
         <v>2</v>
